--- a/data/table.xlsx
+++ b/data/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuggingFaceProjects\BionicPathSelection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1874AE4E-EB0A-4D0F-AEC6-7F88F5599FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46865103-740B-44A9-83B5-27AC61A91048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="140">
   <si>
     <t>Bionic prototype</t>
   </si>
@@ -311,14 +311,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://doi.org/doi:10.1126/sciadv.aaq0919</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://doi.org/https://doi.org/10.1016/j.jcis.2019.03.096</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://doi.org/10.1016/j.cej.2022.136874</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -540,6 +532,18 @@
   </si>
   <si>
     <t>Anti-drag; Self-cleaning; Self-healing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/c7nr05683d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jcis.2019.03.096</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://doi.org/10.1126/sciadv.aaq0919</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -911,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -951,13 +955,13 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -971,13 +975,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E3" s="3">
         <v>2</v>
@@ -991,13 +995,13 @@
         <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E4" s="3">
         <v>3</v>
@@ -1011,13 +1015,13 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -1031,13 +1035,13 @@
         <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E6" s="3">
         <v>5</v>
@@ -1051,13 +1055,13 @@
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="E7" s="3">
         <v>6</v>
@@ -1071,13 +1075,13 @@
         <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="E8" s="3">
         <v>7</v>
@@ -1091,13 +1095,13 @@
         <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E9" s="3">
         <v>8</v>
@@ -1111,13 +1115,13 @@
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="E10" s="3">
         <v>9</v>
@@ -1131,13 +1135,13 @@
         <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -1151,13 +1155,13 @@
         <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="E12" s="3">
         <v>11</v>
@@ -1171,13 +1175,13 @@
         <v>32</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="E13" s="3">
         <v>12</v>
@@ -1191,13 +1195,13 @@
         <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="E14" s="3">
         <v>13</v>
@@ -1211,10 +1215,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
@@ -1231,13 +1235,13 @@
         <v>19</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E16" s="3">
         <v>15</v>
@@ -1251,13 +1255,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="E17" s="3">
         <v>16</v>
@@ -1271,13 +1275,13 @@
         <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E18" s="3">
         <v>17</v>
@@ -1291,13 +1295,13 @@
         <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E19" s="3">
         <v>18</v>
@@ -1311,13 +1315,13 @@
         <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E20" s="3">
         <v>19</v>
@@ -1331,7 +1335,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>11</v>
@@ -1351,13 +1355,13 @@
         <v>30</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E22" s="3">
         <v>21</v>
@@ -1371,7 +1375,7 @@
         <v>31</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>5</v>
@@ -1380,25 +1384,27 @@
         <v>28</v>
       </c>
       <c r="E23" s="3">
-        <v>20</v>
-      </c>
-      <c r="F23" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="49.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E24" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>58</v>
@@ -1409,16 +1415,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E25" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>59</v>
@@ -1429,16 +1435,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E26" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>60</v>
@@ -1449,16 +1455,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E27" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>61</v>
@@ -1469,16 +1475,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="E28" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>62</v>
@@ -1489,19 +1495,19 @@
         <v>24</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E29" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="49.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -1509,19 +1515,19 @@
         <v>14</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E30" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="49.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -1529,7 +1535,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>5</v>
@@ -1538,10 +1544,10 @@
         <v>34</v>
       </c>
       <c r="E31" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1576,9 +1582,10 @@
     <hyperlink ref="F29" r:id="rId27" xr:uid="{5A6D6184-BE77-4BE5-B435-8A967CE32DB7}"/>
     <hyperlink ref="F30" r:id="rId28" xr:uid="{BFDBFE70-C2C5-4AE3-A8F3-2F29DF1943BC}"/>
     <hyperlink ref="F31" r:id="rId29" xr:uid="{79012EE6-DDFB-4FCD-B6C1-60C06B362798}"/>
+    <hyperlink ref="F23" r:id="rId30" xr:uid="{2B7D67BE-7621-45AB-9C92-FAA91A24C79E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId30"/>
-  <legacyDrawing r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId31"/>
+  <legacyDrawing r:id="rId32"/>
 </worksheet>
 </file>